--- a/data/europe_sales_2020_2025_update.xlsx
+++ b/data/europe_sales_2020_2025_update.xlsx
@@ -629,8 +629,8 @@
   <cols>
     <col width="22.625" customWidth="1" style="21" min="1" max="1"/>
     <col width="9.5" bestFit="1" customWidth="1" style="4" min="2" max="52"/>
-    <col width="9" customWidth="1" style="4" min="53" max="53"/>
-    <col width="9" customWidth="1" style="4" min="54" max="16384"/>
+    <col width="9" customWidth="1" style="4" min="53" max="54"/>
+    <col width="9" customWidth="1" style="4" min="55" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customFormat="1" customHeight="1" s="29">
@@ -7950,7 +7950,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E14" sqref="E14"/>
+      <selection pane="topRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5" customHeight="1"/>
@@ -7959,8 +7959,8 @@
     <col width="9" customWidth="1" style="8" min="2" max="2"/>
     <col width="9" customWidth="1" style="1" min="3" max="3"/>
     <col width="9" customWidth="1" style="8" min="4" max="13"/>
-    <col width="9" customWidth="1" style="1" min="14" max="14"/>
-    <col width="9" customWidth="1" style="1" min="15" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="14" max="15"/>
+    <col width="9" customWidth="1" style="1" min="16" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customFormat="1" customHeight="1" s="2">
